--- a/dashboard_rank.xlsx
+++ b/dashboard_rank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1046bcaf54d827c/Documentos/Dev/Rankrup/Rankrup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{A37241BA-37D0-47F4-A5C9-FFD230C39A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A81A6CE1-CC90-4DE7-8826-D1BE2E6C3EDE}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{A37241BA-37D0-47F4-A5C9-FFD230C39A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{363DF9B2-E23E-4CFD-8220-7F42485F0572}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2E639120-EE68-4242-9352-1289756E9475}"/>
+    <workbookView xWindow="4350" yWindow="885" windowWidth="15375" windowHeight="7785" xr2:uid="{2E639120-EE68-4242-9352-1289756E9475}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="14">
   <si>
     <t>ID_LEAD</t>
   </si>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38E19E4-E139-4916-9AD4-8DE782C52C76}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +517,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1678,7 +1678,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" ref="B67:B117" si="1">DATE(2025,6,23)</f>
+        <f t="shared" ref="B67:B122" si="1">DATE(2025,6,23)</f>
         <v>45831</v>
       </c>
       <c r="C67" t="s">
@@ -2590,6 +2590,369 @@
       <c r="E117" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2">
+        <f>DATE(2025,6,24)</f>
+        <v>45832</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2">
+        <f t="shared" ref="B119:B140" si="2">DATE(2025,6,24)</f>
+        <v>45832</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2">
+        <f t="shared" si="2"/>
+        <v>45832</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/dashboard_rank.xlsx
+++ b/dashboard_rank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1046bcaf54d827c/Documentos/Dev/Rankrup/Rankrup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{A37241BA-37D0-47F4-A5C9-FFD230C39A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{363DF9B2-E23E-4CFD-8220-7F42485F0572}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{A37241BA-37D0-47F4-A5C9-FFD230C39A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2156B8C3-07E8-4FF3-BBD3-2D62AE103BF5}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="885" windowWidth="15375" windowHeight="7785" xr2:uid="{2E639120-EE68-4242-9352-1289756E9475}"/>
+    <workbookView xWindow="26790" yWindow="1620" windowWidth="21600" windowHeight="11295" xr2:uid="{2E639120-EE68-4242-9352-1289756E9475}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="14">
   <si>
     <t>ID_LEAD</t>
   </si>
@@ -130,11 +130,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38E19E4-E139-4916-9AD4-8DE782C52C76}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1677,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" ref="B67:B122" si="1">DATE(2025,6,23)</f>
+        <f t="shared" ref="B67:B117" si="1">DATE(2025,6,23)</f>
         <v>45831</v>
       </c>
       <c r="C67" t="s">
@@ -2677,7 +2676,7 @@
       <c r="D122" t="s">
         <v>9</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2695,6 +2694,9 @@
       <c r="D123" t="s">
         <v>6</v>
       </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
@@ -2710,6 +2712,9 @@
       <c r="D124" t="s">
         <v>6</v>
       </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
@@ -2725,6 +2730,9 @@
       <c r="D125" t="s">
         <v>6</v>
       </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -2740,6 +2748,9 @@
       <c r="D126" t="s">
         <v>6</v>
       </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
@@ -2755,6 +2766,9 @@
       <c r="D127" t="s">
         <v>6</v>
       </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
@@ -2770,8 +2784,11 @@
       <c r="D128" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -2785,8 +2802,11 @@
       <c r="D129" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -2800,8 +2820,11 @@
       <c r="D130" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -2815,8 +2838,11 @@
       <c r="D131" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -2830,8 +2856,11 @@
       <c r="D132" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -2845,8 +2874,11 @@
       <c r="D133" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -2860,8 +2892,11 @@
       <c r="D134" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -2875,8 +2910,11 @@
       <c r="D135" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -2890,8 +2928,11 @@
       <c r="D136" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -2905,8 +2946,11 @@
       <c r="D137" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -2920,8 +2964,11 @@
       <c r="D138" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -2935,8 +2982,11 @@
       <c r="D139" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -2950,9 +3000,1143 @@
       <c r="D140" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>141</v>
+      </c>
+      <c r="B141" s="2">
+        <f>DATE(2025,6,25)</f>
+        <v>45833</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>142</v>
+      </c>
+      <c r="B142" s="2">
+        <f t="shared" ref="B142:B166" si="3">DATE(2025,6,25)</f>
+        <v>45833</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>143</v>
+      </c>
+      <c r="B143" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>144</v>
+      </c>
+      <c r="B144" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>145</v>
+      </c>
+      <c r="B145" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>146</v>
+      </c>
+      <c r="B146" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>147</v>
+      </c>
+      <c r="B147" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>148</v>
+      </c>
+      <c r="B148" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>149</v>
+      </c>
+      <c r="B149" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>150</v>
+      </c>
+      <c r="B150" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>151</v>
+      </c>
+      <c r="B151" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>152</v>
+      </c>
+      <c r="B152" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C156" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C160" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C161" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C162" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>162</v>
+      </c>
+      <c r="B165" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>163</v>
+      </c>
+      <c r="B166" s="2">
+        <f t="shared" si="3"/>
+        <v>45833</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>164</v>
+      </c>
+      <c r="B167" s="2">
+        <f>DATE(2025,6,26)</f>
+        <v>45834</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>165</v>
+      </c>
+      <c r="B168" s="2">
+        <f t="shared" ref="B168:B203" si="4">DATE(2025,6,26)</f>
+        <v>45834</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>166</v>
+      </c>
+      <c r="B169" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>167</v>
+      </c>
+      <c r="B170" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>168</v>
+      </c>
+      <c r="B171" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>169</v>
+      </c>
+      <c r="B172" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>170</v>
+      </c>
+      <c r="B173" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>171</v>
+      </c>
+      <c r="B174" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>172</v>
+      </c>
+      <c r="B175" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>173</v>
+      </c>
+      <c r="B176" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>174</v>
+      </c>
+      <c r="B177" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>175</v>
+      </c>
+      <c r="B178" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>176</v>
+      </c>
+      <c r="B179" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>177</v>
+      </c>
+      <c r="B180" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>178</v>
+      </c>
+      <c r="B181" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>179</v>
+      </c>
+      <c r="B182" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>180</v>
+      </c>
+      <c r="B183" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C183" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>181</v>
+      </c>
+      <c r="B184" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C184" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>182</v>
+      </c>
+      <c r="B185" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>183</v>
+      </c>
+      <c r="B186" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C186" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>184</v>
+      </c>
+      <c r="B187" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C187" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>185</v>
+      </c>
+      <c r="B188" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C188" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>186</v>
+      </c>
+      <c r="B189" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C189" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>187</v>
+      </c>
+      <c r="B190" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C190" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>6</v>
+      </c>
+      <c r="E190" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>188</v>
+      </c>
+      <c r="B191" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C191" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>189</v>
+      </c>
+      <c r="B192" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C192" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>190</v>
+      </c>
+      <c r="B193" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C193" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>191</v>
+      </c>
+      <c r="B194" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C194" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>192</v>
+      </c>
+      <c r="B195" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C195" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>193</v>
+      </c>
+      <c r="B196" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C196" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>194</v>
+      </c>
+      <c r="B197" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C197" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>195</v>
+      </c>
+      <c r="B198" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C198" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>196</v>
+      </c>
+      <c r="B199" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C199" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>197</v>
+      </c>
+      <c r="B200" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C200" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>198</v>
+      </c>
+      <c r="B201" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C201" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>199</v>
+      </c>
+      <c r="B202" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C202" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>200</v>
+      </c>
+      <c r="B203" s="2">
+        <f t="shared" si="4"/>
+        <v>45834</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
